--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffDeal.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffDeal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A4451-F167-409E-B608-291EEF7BA72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CCA78E-3FB6-4EF6-9D66-33C4D488196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -395,6 +395,31 @@
   </si>
   <si>
     <t>10;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前buff减少层数</t>
+  </si>
+  <si>
+    <t>CurBuff</t>
+  </si>
+  <si>
+    <t>BuffStackCountChg</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffStackCountChgCurReduce_MiFeng3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce;9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDeal_BuffStackCountChgCurReduce_BianFu1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce;5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +877,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1401,8 +1426,40 @@
     <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="24" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffDeal.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_BuffDeal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CCA78E-3FB6-4EF6-9D66-33C4D488196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B12CFD-A3D2-46C4-9A11-A14DC109336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -133,13 +133,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffDeal</t>
-  </si>
-  <si>
-    <t>BuffDeal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffDealSelectCondition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -246,14 +239,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BuffStackCountChgCurAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffStackCountChgCurReduce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>当前buff新增层数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -262,30 +247,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BuffRemoveByBuffCfgId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveByBuffType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveByBuffTagType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveByBuffTagGroupType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveCur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>当前buff 剩余时长变成原来剩余的两倍</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -310,10 +271,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BuffDeal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2;0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -338,26 +295,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>BuffLeftTimeChgByLeftTimeCur</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLeftTimeChgByOrgTimeCur</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffDurationChgByOrgTimeCur</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffDurationChgByValueCur</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffDurationChgByPercentValueCur</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AllBuff</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -366,38 +303,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>移除连击斧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>将此组buff移除1层</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffTagGroupTowerLianJi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRemoveByBuffTagGroupTypeTowerLianJi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>灾厄塔附魔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新debuff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLeftTimeChgByOrgTimeCurZaiE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>当前buff减少层数</t>
   </si>
   <si>
@@ -421,6 +326,78 @@
   <si>
     <t>Reduce;5</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>破除物理护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破除魔法护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemoveCur</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemoveAll</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemoveByBuffCfgId</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemoveByBuffType</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemoveByBuffTagType</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemoveByBuffTagGroupType</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffStackCountChgCurAdd</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffStackCountChgCurReduce</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffLeftTimeChgByLeftTimeCur</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffLeftTimeChgByOrgTimeCur</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffDurationChgByOrgTimeCur</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffDurationChgByValueCur</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffDurationChgByPercentValueCur</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemove_Buff_Shield_Physical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemove_Buff_Shield_Magical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Shield_Physical</t>
+  </si>
+  <si>
+    <t>Buff_Shield_Magical</t>
+  </si>
+  <si>
+    <t>BuffDeal_BuffRemove_Buff_NormalAttack_Tower_XBow1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除弩箭塔加速buff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_NormalAttack_Tower_XBow1</t>
   </si>
 </sst>
 </file>
@@ -572,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -585,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -874,45 +857,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1"/>
+      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -921,30 +903,28 @@
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -953,32 +933,30 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -987,24 +965,22 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1013,32 +989,30 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -1047,428 +1021,322 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
-        <v>BuffDeal_BuffRemoveCur</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="H16" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
-        <v>BuffDeal_BuffRemoveAll</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:D11" si="0">B8&amp;"_"&amp;C8</f>
-        <v>BuffDeal_BuffRemoveByBuffCfgId</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>BuffDeal_BuffRemoveByBuffType</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>BuffDeal_BuffRemoveByBuffTagType</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>BuffDeal_BuffRemoveByBuffTagGroupType</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12:D13" si="1">B12&amp;"_"&amp;C12</f>
-        <v>BuffDeal_BuffStackCountChgCurAdd</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>BuffDeal_BuffStackCountChgCurReduce</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f t="shared" ref="D14:D15" si="2">B14&amp;"_"&amp;C14</f>
-        <v>BuffDeal_BuffLeftTimeChgByLeftTimeCur</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>BuffDeal_BuffLeftTimeChgByOrgTimeCur</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f t="shared" ref="D16" si="3">B16&amp;"_"&amp;C16</f>
-        <v>BuffDeal_BuffDurationChgByOrgTimeCur</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f t="shared" ref="D17:D20" si="4">B17&amp;"_"&amp;C17</f>
-        <v>BuffDeal_BuffDurationChgByValueCur</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="F22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>BuffDeal_BuffDurationChgByPercentValueCur</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>BuffDeal_BuffRemoveByBuffTagGroupTypeTowerLianJi</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>BuffDeal_BuffLeftTimeChgByOrgTimeCurZaiE</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
